--- a/input/Cosine1.xlsx
+++ b/input/Cosine1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -460,13 +460,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.09428908078644541</v>
+        <v>0.1476674106001415</v>
       </c>
       <c r="C2" t="n">
-        <v>3.084087816604919</v>
+        <v>2.942101459957778</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1190775943485894</v>
+        <v>0.07049155245767012</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>0.4333231246330749</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07667090268306462</v>
+        <v>0.09768040281875964</v>
       </c>
       <c r="C3" t="n">
-        <v>2.99386260904588</v>
+        <v>3.298972515789647</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1229753980395753</v>
+        <v>0.1435797463073023</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>0.8666462492661499</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1460760365331172</v>
+        <v>0.1349109666706689</v>
       </c>
       <c r="C4" t="n">
-        <v>2.980783630468525</v>
+        <v>2.885949886071024</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1231976093798177</v>
+        <v>0.06293077365701315</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>1.299969373899225</v>
       </c>
       <c r="B5" t="n">
-        <v>0.09942001050198246</v>
+        <v>0.1176141782755219</v>
       </c>
       <c r="C5" t="n">
-        <v>2.542414591082941</v>
+        <v>2.314064943909416</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09279371213215495</v>
+        <v>0.05760386809086761</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>1.7332924985323</v>
       </c>
       <c r="B6" t="n">
-        <v>0.09310439672143259</v>
+        <v>0.08387920535328325</v>
       </c>
       <c r="C6" t="n">
-        <v>1.998960872449168</v>
+        <v>1.891600025215038</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1108661428888642</v>
+        <v>0.07017953711186031</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>2.166615623165375</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05321809193007498</v>
+        <v>0.06133465385190478</v>
       </c>
       <c r="C7" t="n">
-        <v>1.190994382504014</v>
+        <v>1.670071560772693</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07192825526994558</v>
+        <v>0.1188793223012413</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>2.59993874779845</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1309190215581872</v>
+        <v>0.05568351709503638</v>
       </c>
       <c r="C8" t="n">
-        <v>1.013182676577142</v>
+        <v>0.6403596860693295</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1086336820717176</v>
+        <v>0.10346647721759</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>3.033261872431524</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1434436080026141</v>
+        <v>0.08424191696994403</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2958113556199359</v>
+        <v>0.07147129295388653</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1320657028698773</v>
+        <v>0.1325046779212274</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>3.466584997064599</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1168437846707109</v>
+        <v>0.1053977716841419</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.4957919800189287</v>
+        <v>-0.4586304841802679</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1422739533715819</v>
+        <v>0.08549481488210758</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>3.899908121697675</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1376053113502473</v>
+        <v>0.09885937618367405</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.8857244328570245</v>
+        <v>-1.214177754731012</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07232894775529919</v>
+        <v>0.08559483556625029</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>4.333231246330749</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1060619519781263</v>
+        <v>0.06450622686451341</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.811417563959807</v>
+        <v>-2.048689657360445</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1470739022945856</v>
+        <v>0.1468509823372504</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>4.766554370963824</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05663363055682231</v>
+        <v>0.05095252640635244</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.269268913845332</v>
+        <v>-2.310243552827969</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1246087209577966</v>
+        <v>0.08806520750585126</v>
       </c>
     </row>
     <row r="14">
@@ -628,13 +628,13 @@
         <v>5.199877495596899</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1407430247948288</v>
+        <v>0.1050488427212418</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.471549716477521</v>
+        <v>-2.727182624186739</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1357201350863667</v>
+        <v>0.1498751106465459</v>
       </c>
     </row>
     <row r="15">
@@ -642,13 +642,13 @@
         <v>5.633200620229974</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1467541831076037</v>
+        <v>0.1188826385697819</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.756477001892736</v>
+        <v>-2.827916073640093</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1256195270148264</v>
+        <v>0.1173844685118637</v>
       </c>
     </row>
     <row r="16">
@@ -656,13 +656,13 @@
         <v>6.066523744863049</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1318822274627095</v>
+        <v>0.07541223863442555</v>
       </c>
       <c r="C16" t="n">
-        <v>-3.171820351627475</v>
+        <v>-2.82997844365193</v>
       </c>
       <c r="D16" t="n">
-        <v>0.07475642810037697</v>
+        <v>0.07962616928736238</v>
       </c>
     </row>
     <row r="17">
@@ -670,13 +670,13 @@
         <v>6.499846869496124</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1149246668149058</v>
+        <v>0.1391262935900381</v>
       </c>
       <c r="C17" t="n">
-        <v>-3.059839936842702</v>
+        <v>-2.955531292268895</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1428833853895889</v>
+        <v>0.1181665086434596</v>
       </c>
     </row>
     <row r="18">
@@ -684,13 +684,13 @@
         <v>6.933169994129199</v>
       </c>
       <c r="B18" t="n">
-        <v>0.09519638214296315</v>
+        <v>0.09538742837929842</v>
       </c>
       <c r="C18" t="n">
-        <v>-2.524184658091455</v>
+        <v>-2.595698837342453</v>
       </c>
       <c r="D18" t="n">
-        <v>0.08887977030213925</v>
+        <v>0.06236158478798554</v>
       </c>
     </row>
     <row r="19">
@@ -698,13 +698,13 @@
         <v>7.366493118762274</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1095649323005766</v>
+        <v>0.06376667845470585</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.507325739000304</v>
+        <v>-2.564387514058391</v>
       </c>
       <c r="D19" t="n">
-        <v>0.07204577050684829</v>
+        <v>0.08550120459922199</v>
       </c>
     </row>
     <row r="20">
@@ -712,13 +712,13 @@
         <v>7.799816243395349</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1171781548826354</v>
+        <v>0.05946586234230136</v>
       </c>
       <c r="C20" t="n">
-        <v>-2.023711826047295</v>
+        <v>-2.22144093092511</v>
       </c>
       <c r="D20" t="n">
-        <v>0.07571795823163274</v>
+        <v>0.09083280187346386</v>
       </c>
     </row>
     <row r="21">
@@ -726,13 +726,13 @@
         <v>8.233139368028423</v>
       </c>
       <c r="B21" t="n">
-        <v>0.06281477031590886</v>
+        <v>0.14143163881128</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.503381069469133</v>
+        <v>-1.608876037668836</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1097645184625546</v>
+        <v>0.12823967821486</v>
       </c>
     </row>
     <row r="22">
@@ -740,13 +740,13 @@
         <v>8.666462492661498</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1104925394097948</v>
+        <v>0.08305853201782236</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.9998490098740542</v>
+        <v>-1.074418688859741</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1151757838895185</v>
+        <v>0.08843313942692847</v>
       </c>
     </row>
     <row r="23">
@@ -754,13 +754,13 @@
         <v>9.099785617294573</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1100009679594601</v>
+        <v>0.1244079366159185</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.6127633619374242</v>
+        <v>-0.2753698464313605</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1292212370689733</v>
+        <v>0.05820950321167653</v>
       </c>
     </row>
     <row r="24">
@@ -768,13 +768,13 @@
         <v>9.533108741927649</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1176445446287979</v>
+        <v>0.09447986381113339</v>
       </c>
       <c r="C24" t="n">
-        <v>0.261465840114543</v>
+        <v>0.1747408497613457</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1050948066709939</v>
+        <v>0.1498086926009261</v>
       </c>
     </row>
     <row r="25">
@@ -782,13 +782,13 @@
         <v>9.966431866560724</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0502611571175718</v>
+        <v>0.102706168991809</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9025219400974217</v>
+        <v>1.28647804516334</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1146495901200948</v>
+        <v>0.1099705306713902</v>
       </c>
     </row>
     <row r="26">
@@ -796,13 +796,13 @@
         <v>10.3997549911938</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1449864230452706</v>
+        <v>0.08190103872214494</v>
       </c>
       <c r="C26" t="n">
-        <v>1.383728679746731</v>
+        <v>1.246365693771726</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1268337062075724</v>
+        <v>0.1010696732095713</v>
       </c>
     </row>
     <row r="27">
@@ -810,13 +810,13 @@
         <v>10.83307811582687</v>
       </c>
       <c r="B27" t="n">
-        <v>0.06300465890263546</v>
+        <v>0.08040126220466116</v>
       </c>
       <c r="C27" t="n">
-        <v>1.734408732496396</v>
+        <v>1.812025271099527</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1046992648190349</v>
+        <v>0.08616791133993917</v>
       </c>
     </row>
     <row r="28">
@@ -824,13 +824,13 @@
         <v>11.26640124045995</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1070684133376666</v>
+        <v>0.08297304313685699</v>
       </c>
       <c r="C28" t="n">
-        <v>2.205024228178227</v>
+        <v>2.034382655514586</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1322638225781686</v>
+        <v>0.05793545829138692</v>
       </c>
     </row>
     <row r="29">
@@ -838,13 +838,13 @@
         <v>11.69972436509302</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1070489334354102</v>
+        <v>0.1224683169770897</v>
       </c>
       <c r="C29" t="n">
-        <v>2.876277990773718</v>
+        <v>2.840469187707176</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1186064392639724</v>
+        <v>0.1134330744292962</v>
       </c>
     </row>
     <row r="30">
@@ -852,13 +852,13 @@
         <v>12.1330474897261</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05485907128062074</v>
+        <v>0.1401174123704053</v>
       </c>
       <c r="C30" t="n">
-        <v>3.02113356721043</v>
+        <v>2.855748465557786</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1408916457551719</v>
+        <v>0.1338161944184134</v>
       </c>
     </row>
     <row r="31">
@@ -866,13 +866,13 @@
         <v>12.56637061435917</v>
       </c>
       <c r="B31" t="n">
-        <v>0.07659669760672179</v>
+        <v>0.07151188914532082</v>
       </c>
       <c r="C31" t="n">
-        <v>2.764946596656199</v>
+        <v>3.098250279686679</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0694383012505289</v>
+        <v>0.08157090338010761</v>
       </c>
     </row>
   </sheetData>
